--- a/data/income_statement/3digits/total/702_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/702_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>702-Management consultancy activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>702-Management consultancy activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1621088.67184</v>
@@ -959,34 +865,39 @@
         <v>2830640.83112</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3281804.07552</v>
+        <v>3282488.62528</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3715518.43213</v>
+        <v>3715724.049149999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4622127.88042</v>
+        <v>4633028.54834</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5534959.8536</v>
+        <v>5657120.77243</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6316650.81258</v>
+        <v>6629182.34924</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9064730.362179998</v>
+        <v>9064730.36218</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10539071.53767</v>
+        <v>10563705.66478</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12916700.12985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13110564.83933</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>15975350.001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1320981.73579</v>
@@ -998,73 +909,83 @@
         <v>2252416.67336</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2717400.72813</v>
+        <v>2717921.80705</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3061096.26188</v>
+        <v>3061294.6821</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3695479.47957</v>
+        <v>3706013.21142</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4577351.07636</v>
+        <v>4683583.15151</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5278434.227620001</v>
+        <v>5525877.27539</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7405921.409390001</v>
+        <v>7405921.40939</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8644046.610239999</v>
+        <v>8661915.41103</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10436418.55976</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10595881.20403</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12831585.304</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>232397.3123</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>270750.4540499999</v>
+        <v>270750.45405</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>473453.71205</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>460474.11466</v>
+        <v>460636.69495</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>541002.31622</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>771326.1340900001</v>
+        <v>771328.30456</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>814080.8027499999</v>
+        <v>820749.40798</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>814286.29778</v>
+        <v>873055.1435899999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1319823.04148</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1452921.25341</v>
+        <v>1458967.99617</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2059192.27429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2085501.90854</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2633713.36</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>67709.62375</v>
@@ -1076,34 +997,39 @@
         <v>104770.44571</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>103929.23273</v>
+        <v>103930.12328</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>113419.85403</v>
+        <v>113427.05083</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>155322.26676</v>
+        <v>155687.03236</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>143527.97449</v>
+        <v>152788.21294</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>223930.28718</v>
+        <v>230249.93026</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>338985.91131</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>442103.67402</v>
+        <v>442822.25758</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>421089.2958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>429181.72676</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>510051.337</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>15604.03037</v>
@@ -1115,34 +1041,39 @@
         <v>36309.51692</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>37800.15830999999</v>
+        <v>37800.15831</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>25129.4047</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>37264.88568</v>
+        <v>37269.96397</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>52216.23814</v>
+        <v>56253.10214</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>40685.37384</v>
+        <v>61766.65862</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>118651.52534</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>135113.03232</v>
+        <v>135147.16232</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>181181.07144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>181581.03699</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>249692.762</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>14303.51739</v>
@@ -1154,34 +1085,39 @@
         <v>34699.42667</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>34487.91495</v>
+        <v>34487.91495000001</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>22684.44426</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>34269.63074</v>
+        <v>34274.20356</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>48433.71901000001</v>
+        <v>52342.77201000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>36440.78509</v>
+        <v>56637.90003</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>112418.0297</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>123168.99108</v>
+        <v>123203.12108</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>154358.82175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>154601.11327</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>209285.456</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>921.48094</v>
@@ -1199,28 +1135,33 @@
         <v>991.2719599999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1914.13236</v>
+        <v>1914.43236</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2451.35304</v>
+        <v>2579.16404</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2334.80439</v>
+        <v>2338.04369</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>2130.47982</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5372.28824</v>
+        <v>5372.288240000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>14380.68207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14383.34276</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>31498.064</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>379.0320400000001</v>
@@ -1238,28 +1179,33 @@
         <v>1453.68848</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1081.12258</v>
+        <v>1081.32805</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>1331.16609</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1909.78436</v>
+        <v>2790.7149</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>4103.01582</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6571.753000000001</v>
+        <v>6571.753</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>12441.56762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12596.58096</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>8909.242</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1605484.64147</v>
@@ -1271,34 +1217,39 @@
         <v>2794331.3142</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3244003.91721</v>
+        <v>3244688.46697</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3690389.02743</v>
+        <v>3690594.64445</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4584862.994740001</v>
+        <v>4595758.58437</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5482743.61546</v>
+        <v>5600867.670290001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6275965.43874</v>
+        <v>6567415.69062</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>8946078.83684</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10403958.50535</v>
+        <v>10428558.50246</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>12735519.05841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12928983.80234</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15725657.239</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1128069.87363</v>
@@ -1310,37 +1261,42 @@
         <v>2010770.21612</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2313601.05006</v>
+        <v>2313952.37009</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2547038.47548</v>
+        <v>2547053.37073</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3041521.20721</v>
+        <v>3049598.52615</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3658702.69883</v>
+        <v>3728551.93478</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4302734.15433</v>
+        <v>4539824.65633</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>6430025.25363</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7301895.40842</v>
+        <v>7312411.67129</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>8983595.615329999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9100276.717650002</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10941157.977</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>8086.20592</v>
+        <v>8086.205919999999</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>12850.8387</v>
@@ -1355,28 +1311,33 @@
         <v>38544.89015</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>55424.14489</v>
+        <v>55424.14489000001</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>82675.01248999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>70458.2019</v>
+        <v>70488.27825</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>186921.84732</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>53845.00278</v>
+        <v>54534.95748999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>89034.66993999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>96730.13240999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>196416.119</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>159051.03643</v>
@@ -1391,31 +1352,36 @@
         <v>481699.53004</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>441215.39618</v>
+        <v>441230.29143</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>490604.83338</v>
+        <v>496884.66919</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>674368.1636800001</v>
+        <v>690654.1363299999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>848449.7938400001</v>
+        <v>849155.2050700001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1665331.77623</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1465566.53193</v>
+        <v>1468669.59511</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1759508.01112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1808768.70251</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2916479.191</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>944619.71155</v>
@@ -1427,34 +1393,39 @@
         <v>1534366.10458</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1776938.82304</v>
+        <v>1777290.14307</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>2063132.83195</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2483053.87818</v>
+        <v>2484800.75895</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2889281.52374</v>
+        <v>2942820.33772</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3361793.28406</v>
+        <v>3598139.92974</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>4561073.18723</v>
+        <v>4561073.187229999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5739962.37491</v>
+        <v>5746678.18141</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>7060015.674550001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7119368.66304</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7755492.417</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>16312.91973</v>
@@ -1469,70 +1440,80 @@
         <v>7727.42094</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>4145.357199999999</v>
+        <v>4145.3572</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>12438.35076</v>
+        <v>12488.95312</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>12377.99892</v>
+        <v>12402.44824</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>22032.87453</v>
+        <v>22041.24327</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>16698.44285</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>42521.4988</v>
+        <v>42528.93728</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>75037.25972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>75409.21969</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>72770.25</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>477414.76784</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>622761.75017</v>
+        <v>622761.7501700001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>783561.0980799999</v>
+        <v>783561.09808</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>930402.8671500001</v>
+        <v>930736.0968800001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1143350.55195</v>
+        <v>1143541.27372</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1543341.78753</v>
+        <v>1546160.05822</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1824040.91663</v>
+        <v>1872315.73551</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1973231.28441</v>
+        <v>2027591.03429</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2516053.58321</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3102063.09693</v>
+        <v>3116146.83117</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3751923.44308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3828707.084689999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4784499.262</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>391259.44516</v>
@@ -1541,37 +1522,42 @@
         <v>493424.62494</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>645833.97554</v>
+        <v>645834.21442</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>816416.66955</v>
+        <v>816522.77733</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>956220.8428</v>
+        <v>959177.87995</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1275616.27225</v>
+        <v>1280932.11165</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1555784.82066</v>
+        <v>1601637.60136</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1695024.88051</v>
+        <v>1773607.12855</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2093052.2328</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2700180.15386</v>
+        <v>2711561.38953</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3229424.53391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3293918.37775</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3579209.759</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>11783.60829</v>
@@ -1586,34 +1572,39 @@
         <v>4003.29884</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>19094.00416</v>
+        <v>19129.89803</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>23885.6085</v>
+        <v>23903.85561</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>9939.94096</v>
+        <v>9968.203</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>16395.42414</v>
+        <v>17126.64812</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>14983.10164</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>23255.45862</v>
+        <v>23257.80541</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>25942.37375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>25947.60116</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>33562.603</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>44219.30332</v>
+        <v>44219.30331999999</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>54588.99195</v>
@@ -1622,112 +1613,127 @@
         <v>76270.05190999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>107529.17849</v>
+        <v>107552.56466</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>119131.08553</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>136179.17727</v>
+        <v>136642.56821</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>157930.82645</v>
+        <v>173950.69161</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>178659.56338</v>
+        <v>200247.91758</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>234676.41113</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>341421.439</v>
+        <v>342037.16876</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>448690.98406</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>451630.82587</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>479747.551</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>335256.5335499999</v>
+        <v>335256.53355</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>427573.74191</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>566367.84924</v>
+        <v>566368.08812</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>704884.1922200001</v>
+        <v>704966.91383</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>817995.75311</v>
+        <v>820916.89639</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1115551.48648</v>
+        <v>1120385.68783</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1387914.05325</v>
+        <v>1417718.70675</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1499969.89299</v>
+        <v>1556232.56285</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1843392.72003</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2335503.25624</v>
+        <v>2346266.41536</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2754791.1761</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2816339.95072</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3065899.605</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>86155.32268</v>
+        <v>86155.32268000001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>129337.12523</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>137727.12254</v>
+        <v>137726.88366</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>113986.1976</v>
+        <v>114213.31955</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>187129.70915</v>
+        <v>184363.39377</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>267725.5152800001</v>
+        <v>265227.94657</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>268256.09597</v>
+        <v>270678.1341500001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>278206.4039</v>
+        <v>253983.90574</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>423001.35041</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>401882.94307</v>
+        <v>404585.44164</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>522498.90917</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>534788.7069399999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1205289.503</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>204887.8084</v>
@@ -1739,34 +1745,39 @@
         <v>354140.00632</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>319835.00575</v>
+        <v>319840.98037</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>472269.76</v>
+        <v>478082.48325</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>659002.8275</v>
+        <v>665508.85964</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>868273.9145999999</v>
+        <v>876155.95228</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1054961.54549</v>
+        <v>1109686.03593</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1894957.25164</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>8230449.20158</v>
+        <v>8238040.460279999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5282716.011250001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5289865.4617</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>9181010.551999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>21078.04851</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>127178.03683</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>142840.796</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>8219.25187</v>
@@ -1814,7 +1830,7 @@
         <v>9754.913689999999</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>5918.215520000001</v>
+        <v>5918.21552</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>14101.43938</v>
@@ -1826,7 +1842,7 @@
         <v>53088.06472</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>81844.67623</v>
+        <v>82144.67622999998</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>128297.20445</v>
@@ -1838,13 +1854,18 @@
         <v>1397710.79293</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>891899.1397600002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>891899.1397599999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1183823.804</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>17871.65729</v>
@@ -1856,34 +1877,39 @@
         <v>41291.27093</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>44243.13837000001</v>
+        <v>44248.63618</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>49010.8579</v>
+        <v>49876.67182</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>131383.47484</v>
+        <v>132307.81271</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>96687.57805000001</v>
+        <v>97989.20373000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>119025.38584</v>
+        <v>119752.16829</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>176994.24443</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>401786.81107</v>
+        <v>401915.12874</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>529517.7920199999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>530073.9145399999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>264759.982</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>202.10393</v>
@@ -1907,22 +1933,27 @@
         <v>642.21698</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1062.42312</v>
+        <v>1062.51073</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>3284.19234</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3507.37733</v>
+        <v>3507.90064</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>2897.19193</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1971.007</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1810.63013</v>
@@ -1940,28 +1971,33 @@
         <v>6226.493179999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4300.46446</v>
+        <v>4300.464460000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3164.55668</v>
+        <v>3367.48923</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4756.62373</v>
+        <v>5102.813050000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>16114.18784</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>5009.268779999999</v>
+        <v>5009.26878</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>21720.15797</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>21972.71844</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>21987.237</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>48528.68324</v>
@@ -1976,31 +2012,36 @@
         <v>8781.97048</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>89839.25511999999</v>
+        <v>89953.29459</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>7081.44139</v>
+        <v>7734.21138</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>49777.82561</v>
+        <v>49790.0745</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>8823.166879999999</v>
+        <v>8857.487080000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>12049.04601</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>279626.5221899999</v>
+        <v>279626.52705</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>15262.33407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>15262.34422</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>25571.902</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>81382.35909999999</v>
@@ -2012,34 +2053,39 @@
         <v>106834.45938</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>97909.90127</v>
+        <v>97910.34757</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>182768.67158</v>
+        <v>185954.85956</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>334775.79677</v>
+        <v>337060.81456</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>460327.96059</v>
+        <v>461572.459</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>604758.09581</v>
+        <v>637654.8166</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1018472.51826</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5784205.469939999</v>
+        <v>5791669.82905</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3497257.58834</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3501532.65049</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7354068.318</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>251.27341</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>424.11489</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>600.577</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>10.65565</v>
@@ -2111,13 +2162,18 @@
         <v>266.14011</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>241.00937</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>252.95008</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>901.0549999999999</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>25533.14527</v>
@@ -2129,34 +2185,39 @@
         <v>40703.41566</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>49083.17517</v>
+        <v>49083.20567999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>45195.06118</v>
+        <v>46841.74306</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>42445.10092</v>
+        <v>45089.00741</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>56571.17911</v>
+        <v>61391.91125999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>55606.04367</v>
+        <v>76326.43374000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>105826.16296</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>131621.45147</v>
+        <v>131619.50522</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>196318.64607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>198372.40052</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>184485.874</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>93237.40192</v>
@@ -2168,37 +2229,42 @@
         <v>185823.42468</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>219254.45418</v>
+        <v>219260.02489</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>221459.42496</v>
+        <v>222156.09388</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>335036.88739</v>
+        <v>336911.52267</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>488649.55295</v>
+        <v>493274.78174</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>616672.93938</v>
+        <v>651425.6707100001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1005444.09082</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7136762.87738</v>
+        <v>7144375.632459999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>7117604.75587</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7124773.36397</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>14395632.82</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>428.00613</v>
+        <v>428.0061299999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>1140.15248</v>
@@ -2210,13 +2276,13 @@
         <v>1788.41748</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1950.50574</v>
+        <v>1979.67218</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4438.92295</v>
+        <v>4502.496639999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3196.61974</v>
+        <v>3197.1563</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>3135.59345</v>
@@ -2225,16 +2291,21 @@
         <v>4493.11757</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>20704.33887</v>
+        <v>20704.42453</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7683.206969999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7646.96231</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>277470.023</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>5220.92833</v>
@@ -2243,7 +2314,7 @@
         <v>3230.23014</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4859.870019999999</v>
+        <v>4859.87002</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>118701.21404</v>
@@ -2252,13 +2323,13 @@
         <v>5235.4035</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7229.182779999999</v>
+        <v>8008.209849999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>12696.08529</v>
+        <v>12706.08529</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11226.74656</v>
+        <v>11377.13836</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>14631.82315</v>
@@ -2267,13 +2338,18 @@
         <v>12253.82107</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>26033.41003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>29156.11885</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>23394.306</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1428.68773</v>
@@ -2288,13 +2364,13 @@
         <v>1272.96269</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>3226.655639999999</v>
+        <v>3700.0321</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>19220.75227</v>
+        <v>19515.82092</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>6807.14188</v>
+        <v>6807.14208</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>3077.80543</v>
@@ -2306,16 +2382,21 @@
         <v>5897.56058</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5939.07722</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>5939.077220000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>7368.221</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>83025.37536000002</v>
+        <v>83025.37535999999</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>47802.31196</v>
@@ -2324,34 +2405,39 @@
         <v>112675.00942</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>83158.14244</v>
+        <v>83163.71315000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>198480.82122</v>
+        <v>198563.41235</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>251155.35057</v>
+        <v>251798.42057</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>450123.07752</v>
+        <v>451596.05361</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>577710.6491899999</v>
+        <v>612268.12266</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>953476.4888600002</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>7028311.185879999</v>
+        <v>7035878.83424</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>7016196.203900001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7020214.18563</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>14031243.444</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>22.80129</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>431.4724</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1539.241</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>2.52164</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>6.18812</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>504.958</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>3109.08144</v>
@@ -2444,70 +2540,80 @@
         <v>14330.17224</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>12503.45542</v>
+        <v>12614.99031</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>52753.99214</v>
+        <v>52847.88801</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>15714.7763</v>
+        <v>18856.49224</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>21433.80067</v>
+        <v>21478.66673</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>30713.49824</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>69001.38068</v>
+        <v>69046.40174</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>61315.19723000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>61379.35944</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>54112.627</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>31065.90265</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>33491.10894999999</v>
+        <v>33491.10895</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>58417.58428</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>72790.31467000001</v>
+        <v>72821.35113</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>94802.40917999999</v>
+        <v>94802.48221</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>295165.8604400001</v>
+        <v>295209.20092</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>375127.06057</v>
+        <v>378327.70934</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>489968.60354</v>
+        <v>491460.43281</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>531782.83033</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1859615.15827</v>
+        <v>1859671.34575</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4698766.82791</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4699335.09048</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3957793.395</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>29331.88662</v>
@@ -2519,34 +2625,39 @@
         <v>55539.74819</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>68661.52937</v>
+        <v>68692.56582999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>78764.69282000001</v>
+        <v>78764.76585</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>147186.04278</v>
+        <v>147229.38326</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>147734.83602</v>
+        <v>150935.48479</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>199736.81725</v>
+        <v>201228.64652</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>236253.28801</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1321796.70712</v>
+        <v>1321852.8946</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1772452.34004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1772980.58926</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1592088.97</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1734.01603</v>
@@ -2579,13 +2690,18 @@
         <v>537818.45115</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2926314.48787</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2926354.50122</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2365704.425</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>166739.82651</v>
@@ -2594,37 +2710,42 @@
         <v>212449.38208</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>247626.1199</v>
+        <v>247625.88102</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>141776.4345</v>
+        <v>141972.9239</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>343137.63501</v>
+        <v>345487.30093</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>296525.59495</v>
+        <v>298616.08262</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>272753.39705</v>
+        <v>275231.59535</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>226526.40647</v>
+        <v>220783.83815</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>780731.6808999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-364045.8910000001</v>
+        <v>-361421.0762900001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-6011156.663360001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-5999454.285809999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-7967126.16</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>11777.13474</v>
@@ -2636,37 +2757,42 @@
         <v>25044.3729</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>22841.83443</v>
+        <v>22842.82379</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>156489.25883</v>
+        <v>156563.7811</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>85859.55326</v>
+        <v>85973.92690999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>95607.73303</v>
+        <v>95997.85984999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>100303.24179</v>
+        <v>101601.07765</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>125796.95132</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>771603.4501100001</v>
+        <v>771777.28438</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>492041.11907</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>532402.1769699999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>291507.801</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>626.69596</v>
+        <v>626.6959600000001</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>440.40627</v>
@@ -2684,10 +2810,10 @@
         <v>1079.69029</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2943.54591</v>
+        <v>2943.54598</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>710.2086199999999</v>
+        <v>1011.24488</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1876.91958</v>
@@ -2696,13 +2822,18 @@
         <v>5742.59205</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>14124.64803</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>14168.0607</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>6575.977</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>11150.43878</v>
@@ -2714,37 +2845,42 @@
         <v>23110.03172</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>22550.56444</v>
+        <v>22551.5538</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>156188.12708</v>
+        <v>156262.64935</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>84779.86297</v>
+        <v>84894.23662000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>92664.18712</v>
+        <v>93054.31387</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>99593.03317</v>
+        <v>100589.83277</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>123920.03174</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>765860.8580600001</v>
+        <v>766034.69233</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>477916.47104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>518234.1162700001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>284931.824</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>33123.03851999999</v>
+        <v>33123.03852</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>19897.18539</v>
@@ -2753,34 +2889,39 @@
         <v>154732.10278</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>40950.76566</v>
+        <v>40952.12968999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>36482.06579</v>
+        <v>36583.15010000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>125912.20315</v>
+        <v>126015.21264</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>54301.90763</v>
+        <v>56409.1871</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>251649.64572</v>
+        <v>253046.2993</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>150467.82506</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>654825.3958200001</v>
+        <v>655649.6690399999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>434843.61697</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>438077.0220599999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1259362.51</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1134.58777</v>
@@ -2795,16 +2936,16 @@
         <v>546.2065200000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1024.60094</v>
+        <v>1093.6971</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>318.59762</v>
+        <v>318.9425</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>655.21252</v>
+        <v>655.5574</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>324.15323</v>
+        <v>327.29463</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>509.97236</v>
@@ -2813,22 +2954,27 @@
         <v>147.87606</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>641.1510400000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>661.2103999999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>669.471</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>8588.651970000001</v>
+        <v>8588.651969999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>4639.82538</v>
+        <v>4639.825379999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6132.189550000001</v>
+        <v>6132.18955</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>9615.459800000001</v>
@@ -2840,25 +2986,30 @@
         <v>6434.54934</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5534.9215</v>
+        <v>5672.34901</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>12217.3014</v>
+        <v>12218.42598</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>7564.805469999999</v>
+        <v>7564.80547</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>19868.36035</v>
+        <v>19870.39095</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>18323.3656</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>18333.62857</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>56659.92</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>23399.79878</v>
@@ -2870,34 +3021,39 @@
         <v>147982.11461</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>30789.09934</v>
+        <v>30790.46337</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>31423.48964</v>
+        <v>31455.47779</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>119159.05619</v>
+        <v>119261.7208</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>48111.77361</v>
+        <v>50081.28069</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>239108.19109</v>
+        <v>240500.57869</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>142393.04723</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>634809.15941</v>
+        <v>635631.4020300001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>415879.10033</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>419082.18309</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1202033.119</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>145393.92273</v>
@@ -2906,37 +3062,42 @@
         <v>206305.11166</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>117938.39002</v>
+        <v>117938.15114</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>123667.50327</v>
+        <v>123863.618</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>463144.82805</v>
+        <v>465467.93193</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>256472.94506</v>
+        <v>258574.79689</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>314059.2224500001</v>
+        <v>314820.2681</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>75180.00254</v>
+        <v>69338.6165</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>756060.80716</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-247267.83671</v>
+        <v>-245293.4609500003</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-5953959.16126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-5905129.1309</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-8934980.869000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>28481.61329</v>
@@ -2945,37 +3106,42 @@
         <v>37525.74049</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>51654.83998999999</v>
+        <v>51654.83999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>48106.47904999999</v>
+        <v>48143.87906</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>72194.78676</v>
+        <v>72506.81975999998</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>85681.28207</v>
+        <v>86074.46887000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>105693.16916</v>
+        <v>106446.52997</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>134435.05775</v>
+        <v>136777.20138</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>173891.56593</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>257687.13776</v>
+        <v>258567.62915</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>250876.31675</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>254278.55942</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>425472.854</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>116912.30944</v>
@@ -2984,34 +3150,37 @@
         <v>168779.37117</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>66283.55003000001</v>
+        <v>66283.31114999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>75561.02421999999</v>
+        <v>75719.73894</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>390950.04129</v>
+        <v>392961.11217</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>170791.66299</v>
+        <v>172500.32802</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>208366.05329</v>
+        <v>208373.73813</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-59255.05520999998</v>
+        <v>-67438.58488000002</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>582169.24123</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-504954.97447</v>
+        <v>-503861.0901</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-6204835.47801</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-6159407.69032</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-9360453.722999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3035</v>
@@ -3038,34 +3210,37 @@
         <v>3618</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4326</v>
+        <v>4330</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5217</v>
+        <v>5225</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5753</v>
+        <v>5773</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6405</v>
+        <v>6467</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7107</v>
+        <v>7168</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>7941</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>8549</v>
+        <v>9016</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>9431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>10345</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>11697</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>